--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,84 +43,69 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -139,97 +124,106 @@
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>shop</t>
   </si>
   <si>
     <t>corona</t>
@@ -590,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,16 +674,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8275862068965517</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -759,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8108108108108109</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.9083333333333333</v>
@@ -809,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8082191780821918</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7777777777777778</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>312</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>312</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8276762402088773</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L10">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.76</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6101694915254238</v>
+        <v>0.55</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8028169014084507</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C14">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="D14">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.562015503875969</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C15">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="D15">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7878787878787878</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.525</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>0.76875</v>
@@ -1359,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5100671140939598</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C17">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7674418604651163</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5098039215686274</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.734375</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4871794871794872</v>
+        <v>0.375</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L19">
         <v>20</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L19">
-        <v>46</v>
-      </c>
       <c r="M19">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.44</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1527,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1559,38 +1553,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4363636363636363</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C21">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>187</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L21">
         <v>24</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>31</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L21">
-        <v>34</v>
-      </c>
-      <c r="M21">
-        <v>34</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1601,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3818181818181818</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1627,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.675</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1651,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3571428571428572</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1677,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.6588235294117647</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2888888888888889</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C24">
         <v>26</v>
@@ -1727,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,49 +1753,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2857142857142857</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
+        <v>3042</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K25">
-        <v>0.6006825938566553</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L25">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1809,287 +1803,167 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.246031746031746</v>
+        <v>0.01218940459446789</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>190</v>
+        <v>2107</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.6511627906976745</v>
+      </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="L27">
+        <v>60</v>
+      </c>
+      <c r="M27">
+        <v>60</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>40</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <v>177</v>
+      </c>
+      <c r="M30">
+        <v>177</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K26">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L26">
-        <v>38</v>
-      </c>
-      <c r="M26">
-        <v>38</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.1742627345844504</v>
-      </c>
-      <c r="C27">
-        <v>65</v>
-      </c>
-      <c r="D27">
-        <v>65</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>308</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27">
-        <v>0.58</v>
-      </c>
-      <c r="L27">
-        <v>29</v>
-      </c>
-      <c r="M27">
-        <v>29</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.11</v>
-      </c>
-      <c r="C28">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>33</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>267</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L28">
-        <v>138</v>
-      </c>
-      <c r="M28">
-        <v>138</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.01640759930915371</v>
-      </c>
-      <c r="C29">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>0.14</v>
-      </c>
-      <c r="F29">
-        <v>0.86</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1139</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29">
-        <v>0.5571428571428572</v>
-      </c>
-      <c r="L29">
-        <v>39</v>
-      </c>
-      <c r="M29">
-        <v>39</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.01289906481780071</v>
-      </c>
-      <c r="C30">
-        <v>40</v>
-      </c>
-      <c r="D30">
-        <v>46</v>
-      </c>
-      <c r="E30">
-        <v>0.13</v>
-      </c>
-      <c r="F30">
-        <v>0.87</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>3061</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L30">
-        <v>48</v>
-      </c>
-      <c r="M30">
-        <v>48</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.01029962546816479</v>
-      </c>
-      <c r="C31">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>29</v>
-      </c>
-      <c r="E31">
-        <v>0.24</v>
-      </c>
-      <c r="F31">
-        <v>0.76</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2114</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K31">
-        <v>0.5294117647058824</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2101,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2127,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.3972602739726027</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2153,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.296875</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2179,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.2692307692307692</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2205,15 +2079,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.1027027027027027</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L36">
         <v>19</v>
@@ -2231,33 +2105,111 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>166</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.01223721368057734</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>3148</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39">
+        <v>0.328125</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40">
+        <v>0.01287284144427002</v>
+      </c>
+      <c r="L40">
+        <v>41</v>
+      </c>
+      <c r="M40">
+        <v>57</v>
+      </c>
+      <c r="N40">
+        <v>0.72</v>
+      </c>
+      <c r="O40">
+        <v>0.28</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3144</v>
       </c>
     </row>
   </sheetData>
